--- a/biology/Zoologie/Busard_tchoug/Busard_tchoug.xlsx
+++ b/biology/Zoologie/Busard_tchoug/Busard_tchoug.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circus melanoleucos
-Le Busard tchoug (Circus melanoleucos) ou Busard Pie[1] est une espèce d'oiseaux de la famille des Accipitridae.
+Le Busard tchoug (Circus melanoleucos) ou Busard Pie est une espèce d'oiseaux de la famille des Accipitridae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le busard tchoug mesure en moyenne 46 cm de long et a une envergure de 110 cm à 125 cm. Le mâle pèse entre 254 et 325 g ; la femelle pèse de 390 à 450 g.
 Le mâle a la tête et le cou noir, des ailes noires et blanches et le corps blanc ; la femelle a le sommet de la tête, l'extrémité des ailes, la queue et le dos bruns et les joues blanchâtres.
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le busard tchoug vit dans l'est de l'Asie, du fleuve Amour au lac Baïkal, en Mongolie, en Manchourie, en Corée et au nord de la Chine.
 En automne il migre vers le Sud jusqu'en Inde et au Sri Lanka ou vers l'Asie du Sud-Est jusqu'à Bornéo et les Philippines. Il vit alors souvent dans les rizières.
@@ -582,7 +598,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les couples creusent un nid d'environ 40 cm de diamètre et 5 cm de profondeur au sol, dans l'herbe et le garnissent de chaume et de feuilles sèches. La femelle pond 4 ou 5 œufs verts avec des taches brunes et elle les couve près de 28 jours. Le mâle nourrit la femelle pendant la couvaison et dans les premiers jours qui suivent l'éclosion des œufs. Ensuite le couple nourrit les oisillons.
 </t>
@@ -613,7 +631,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le busard tchoug vole à 1 ou 2 m au-dessus du sol à la recherche de proies. Il attrape, toujours au sol, des rongeurs, des reptiles, des grenouilles et des oiseaux. A noter qu'il ne capture jamais d'oiseaux en vol.
 </t>
